--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3412FB42-A978-4D96-8CAF-D90751ABC96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C006D8BB-A4A1-408A-BB14-FEF3243B7A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,14 +43,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>스킬 ID</t>
   </si>
   <si>
-    <t>스킬 사용자 ID</t>
-  </si>
-  <si>
     <t>#스킬 설명</t>
   </si>
   <si>
@@ -66,12 +63,6 @@
     <t>스킬 중심</t>
   </si>
   <si>
-    <t>스킬 중심거리</t>
-  </si>
-  <si>
-    <t>치명타 배율</t>
-  </si>
-  <si>
     <t>명중율</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>스킬 해금 조건</t>
   </si>
   <si>
-    <t>#SkillData 시트 관련 설명</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
     <t>skillPivot</t>
   </si>
   <si>
-    <t>skillPivotRange</t>
-  </si>
-  <si>
     <t>skillCritical</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
     <t>unlockCondition</t>
   </si>
   <si>
-    <t>#스킬 효과의 경우 스킬 발동 시 어떤 효과를 가지게 할지(데미지나 디버프 및 버프 등)에 대한 인덱스 리스트</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -159,69 +141,44 @@
     <t>eSkillUnlock</t>
   </si>
   <si>
-    <t>#기본적으로 스킬 하나당 타임라인을 사용해서 연출을 사용할 예정임</t>
-  </si>
-  <si>
-    <t>#근접 광역, 스택 쌓기</t>
-  </si>
-  <si>
-    <t>화무</t>
-  </si>
-  <si>
     <t>PhysicalAttack</t>
   </si>
   <si>
     <t>TARGET_ENEMY</t>
   </si>
   <si>
-    <t>#근접 광역, 스택 의존</t>
-  </si>
-  <si>
-    <t>화룡정점</t>
-  </si>
-  <si>
-    <t>#디버프, 화상 뿌리기</t>
-  </si>
-  <si>
-    <t>타올라라</t>
-  </si>
-  <si>
-    <t>Debuff</t>
-  </si>
-  <si>
-    <t>#근접 단일</t>
-  </si>
-  <si>
-    <t>일반 타격</t>
-  </si>
-  <si>
-    <t>#버프, 스택 쌓기</t>
-  </si>
-  <si>
-    <t>맨들맨들</t>
-  </si>
-  <si>
-    <t>Buff</t>
-  </si>
-  <si>
-    <t>#원거리 광역, 스택의존</t>
-  </si>
-  <si>
-    <t>태양권</t>
-  </si>
-  <si>
-    <t>MagicAttack</t>
-  </si>
-  <si>
-    <t>TARGET_SELF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>스킬 사용 캐릭 ID</t>
+  </si>
+  <si>
+    <t>치명타 보정치</t>
+  </si>
+  <si>
+    <t>#근접 단일, 밀기</t>
+  </si>
+  <si>
+    <t>탐식</t>
+  </si>
+  <si>
+    <t>gluttony</t>
+  </si>
+  <si>
+    <t>#반격</t>
+  </si>
+  <si>
+    <t>반격</t>
+  </si>
+  <si>
+    <t>Caster</t>
+  </si>
+  <si>
+    <t>counterattack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -246,8 +203,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +230,18 @@
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF980000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -279,10 +255,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -294,6 +269,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -515,203 +502,205 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N6" sqref="N4:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>10111001</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="A4" s="9">
+        <v>30020001</v>
+      </c>
+      <c r="B4" s="9">
+        <v>30010001</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="9">
+        <v>30030001</v>
+      </c>
+      <c r="H4" s="9">
+        <v>30040001</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9">
         <v>3</v>
       </c>
-      <c r="J4" s="5">
-        <v>85</v>
-      </c>
-      <c r="K4" s="6">
-        <v>11111001</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="K4" s="9">
+        <v>90</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -719,38 +708,42 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>10121001</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5">
-        <v>6</v>
-      </c>
-      <c r="J5" s="5">
-        <v>95</v>
-      </c>
-      <c r="K5" s="6">
-        <v>11110001</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="A5" s="9">
+        <v>30020001</v>
+      </c>
+      <c r="B5" s="9">
+        <v>30010002</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="9">
+        <v>30030001</v>
+      </c>
+      <c r="H5" s="9">
+        <v>30040001</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9">
+        <v>3</v>
+      </c>
+      <c r="K5" s="9">
+        <v>90</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -758,144 +751,94 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>10131001</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="A6" s="9">
+        <v>10050001</v>
+      </c>
+      <c r="B6" s="9">
+        <v>10010001</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="9">
+        <v>10060001</v>
+      </c>
+      <c r="H6" s="9">
+        <v>10070001</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9">
+        <v>100</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>-1000</v>
-      </c>
-      <c r="J6" s="5">
-        <v>100</v>
-      </c>
-      <c r="K6" s="6">
-        <v>11000000</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>10010001</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>4</v>
-      </c>
-      <c r="J7" s="5">
-        <v>90</v>
-      </c>
-      <c r="K7" s="6">
-        <v>11010001</v>
-      </c>
-      <c r="L7" s="3"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>10030001</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>8</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K8" s="6">
-        <v>11000000</v>
-      </c>
-      <c r="L8" s="3"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>10021001</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3</v>
-      </c>
-      <c r="I9" s="5">
-        <v>-1000</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="6">
-        <v>11021001</v>
-      </c>
-      <c r="L9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C006D8BB-A4A1-408A-BB14-FEF3243B7A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BC4024-E3CB-4744-99F2-FD4730507EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="2453" windowWidth="18668" windowHeight="9982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>스킬 ID</t>
   </si>
@@ -499,10 +499,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N4:N6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -709,84 +709,59 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
-        <v>30020001</v>
+        <v>10050001</v>
       </c>
       <c r="B5" s="9">
-        <v>30010002</v>
+        <v>10010001</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G5" s="9">
-        <v>30030001</v>
+        <v>10060001</v>
       </c>
       <c r="H5" s="9">
-        <v>30040001</v>
+        <v>10070001</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="9">
         <v>3</v>
       </c>
       <c r="K5" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>10050001</v>
-      </c>
-      <c r="B6" s="9">
-        <v>10010001</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="9">
-        <v>10060001</v>
-      </c>
-      <c r="H6" s="9">
-        <v>10070001</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9">
-        <v>3</v>
-      </c>
-      <c r="K6" s="9">
-        <v>100</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="7"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
@@ -797,7 +772,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -815,7 +790,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -826,24 +801,6 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BC4024-E3CB-4744-99F2-FD4730507EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED33B749-6E7A-4E98-AC0B-36CA60C15F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2453" windowWidth="18668" windowHeight="9982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="3045" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -168,10 +168,11 @@
     <t>반격</t>
   </si>
   <si>
-    <t>Caster</t>
-  </si>
-  <si>
     <t>counterattack</t>
+  </si>
+  <si>
+    <t>TARGET_SELF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -502,22 +503,22 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.46484375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -566,7 +567,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -615,7 +616,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -664,7 +665,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>30020001</v>
       </c>
@@ -707,7 +708,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>10050001</v>
       </c>
@@ -724,7 +725,7 @@
         <v>32</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="9">
         <v>10060001</v>
@@ -741,13 +742,13 @@
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
@@ -765,7 +766,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
@@ -783,7 +784,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED33B749-6E7A-4E98-AC0B-36CA60C15F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548016A-8550-4434-9EBA-D3157BD7CADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="3045" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="1840" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>스킬 ID</t>
   </si>
@@ -60,18 +61,12 @@
     <t>스킬 사용 사거리</t>
   </si>
   <si>
-    <t>스킬 중심</t>
-  </si>
-  <si>
     <t>명중율</t>
   </si>
   <si>
     <t>스킬 데미지</t>
   </si>
   <si>
-    <t>스킬 효과</t>
-  </si>
-  <si>
     <t>스킬 아이콘명</t>
   </si>
   <si>
@@ -99,9 +94,6 @@
     <t>skillRangeID</t>
   </si>
   <si>
-    <t>skillPivot</t>
-  </si>
-  <si>
     <t>skillCritical</t>
   </si>
   <si>
@@ -111,9 +103,6 @@
     <t>skillDamage</t>
   </si>
   <si>
-    <t>executionIndex</t>
-  </si>
-  <si>
     <t>skillIconImage</t>
   </si>
   <si>
@@ -132,9 +121,6 @@
     <t>eSkillType</t>
   </si>
   <si>
-    <t>ePivot</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -144,9 +130,6 @@
     <t>PhysicalAttack</t>
   </si>
   <si>
-    <t>TARGET_ENEMY</t>
-  </si>
-  <si>
     <t>스킬 사용 캐릭 ID</t>
   </si>
   <si>
@@ -159,19 +142,161 @@
     <t>탐식</t>
   </si>
   <si>
-    <t>gluttony</t>
-  </si>
-  <si>
     <t>#반격</t>
   </si>
   <si>
     <t>반격</t>
   </si>
   <si>
-    <t>counterattack</t>
-  </si>
-  <si>
-    <t>TARGET_SELF</t>
+    <t>#단일 힐</t>
+  </si>
+  <si>
+    <t>청혈</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>#범위 힐</t>
+  </si>
+  <si>
+    <t>#디버프 해제</t>
+  </si>
+  <si>
+    <t>Etc</t>
+  </si>
+  <si>
+    <t>#원거리 공격</t>
+  </si>
+  <si>
+    <t>독침</t>
+  </si>
+  <si>
+    <t>timeline_Counterattack</t>
+  </si>
+  <si>
+    <t>#근접 단일</t>
+  </si>
+  <si>
+    <t>난타</t>
+  </si>
+  <si>
+    <t>timeline_Nanta</t>
+  </si>
+  <si>
+    <t>timeline_Gluttony</t>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원거리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단일</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원거리 광역</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicAttack</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>해기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline_Purify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline_PoisonShot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline_ThrowHeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline_SingleHeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline_EchoShot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline_Scream</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_SingleHeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ThrowHeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_Purify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_PoisonShot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -190,6 +315,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -211,8 +337,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,33 +367,41 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF980000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -256,30 +410,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -500,307 +658,512 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="20.6328125" customWidth="1"/>
+    <col min="12" max="12" width="17.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>30020001</v>
-      </c>
-      <c r="B4" s="9">
-        <v>30010001</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>20101001</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20001001</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="9">
-        <v>30030001</v>
-      </c>
-      <c r="H4" s="9">
-        <v>30040001</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="9">
-        <v>3</v>
-      </c>
-      <c r="K4" s="9">
-        <v>90</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="7"/>
+      <c r="F4" s="4">
+        <v>20102001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>20102001</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>10050001</v>
-      </c>
-      <c r="B5" s="9">
-        <v>10010001</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="9">
-        <v>10060001</v>
-      </c>
-      <c r="H5" s="9">
-        <v>10070001</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="9">
-        <v>3</v>
-      </c>
-      <c r="K5" s="9">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="7"/>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4">
+        <v>20101002</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20001001</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4">
+        <v>20102002</v>
+      </c>
+      <c r="G5" s="4">
+        <v>20102002</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="2"/>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4">
+        <v>20101003</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20001001</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4">
+        <v>20102003</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="I6" s="5">
+        <v>100</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="2"/>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>20101004</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20001001</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4">
+        <v>20102004</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20103004</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>100</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="2"/>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>90101001</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10001001</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4">
+        <v>90102001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>90103001</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>100</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>30101001</v>
+      </c>
+      <c r="B9" s="4">
+        <v>30001001</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
+        <v>30102001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>30103001</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>90</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>30101002</v>
+      </c>
+      <c r="B10" s="4">
+        <v>30001001</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4">
+        <v>30102002</v>
+      </c>
+      <c r="G10" s="4">
+        <v>30103002</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>90</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="4">
+        <v>30101003</v>
+      </c>
+      <c r="B11" s="4">
+        <v>30001002</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4">
+        <v>30102003</v>
+      </c>
+      <c r="G11" s="4">
+        <v>30103003</v>
+      </c>
+      <c r="H11" s="11">
+        <v>-1000</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="4">
+        <v>30101004</v>
+      </c>
+      <c r="B12" s="4">
+        <v>30001002</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4">
+        <v>30102004</v>
+      </c>
+      <c r="G12" s="4">
+        <v>30103004</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-1000</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548016A-8550-4434-9EBA-D3157BD7CADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBABFFF-A98B-4D37-B97D-0EE82CCA08B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="1840" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="11070" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -664,22 +664,23 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" customWidth="1"/>
-    <col min="12" max="12" width="17.81640625" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -724,7 +725,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -769,7 +770,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -814,7 +815,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>20101001</v>
       </c>
@@ -859,7 +860,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>20101002</v>
       </c>
@@ -901,7 +902,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>20101003</v>
       </c>
@@ -941,7 +942,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>20101004</v>
       </c>
@@ -983,7 +984,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>90101001</v>
       </c>
@@ -1023,7 +1024,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>30101001</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>30101002</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>30101003</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>30101004</v>
       </c>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBABFFF-A98B-4D37-B97D-0EE82CCA08B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1356494-3F17-4A83-A338-65D3E1BE84DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="11070" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2363" yWindow="3180" windowWidth="18667" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>스킬 ID</t>
   </si>
@@ -172,19 +172,10 @@
     <t>독침</t>
   </si>
   <si>
-    <t>timeline_Counterattack</t>
-  </si>
-  <si>
     <t>#근접 단일</t>
   </si>
   <si>
     <t>난타</t>
-  </si>
-  <si>
-    <t>timeline_Nanta</t>
-  </si>
-  <si>
-    <t>timeline_Gluttony</t>
   </si>
   <si>
     <r>
@@ -297,6 +288,38 @@
   </si>
   <si>
     <t>icon_PoisonShot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline_Counterattack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_Counterattack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline_Nanta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_Nanta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline_Gluttony</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_Gluttony</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_EchoShot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_Scream</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -661,26 +684,26 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.73046875" customWidth="1"/>
+    <col min="11" max="11" width="20.59765625" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -725,7 +748,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -770,7 +793,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -815,7 +838,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>20101001</v>
       </c>
@@ -844,13 +867,13 @@
         <v>1000</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -860,7 +883,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4">
         <v>20101002</v>
       </c>
@@ -871,7 +894,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>36</v>
@@ -889,20 +912,20 @@
         <v>1000</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4">
         <v>20101003</v>
       </c>
@@ -913,7 +936,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>39</v>
@@ -929,20 +952,20 @@
         <v>100</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>20101004</v>
       </c>
@@ -971,20 +994,20 @@
         <v>100</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>90101001</v>
       </c>
@@ -1012,19 +1035,21 @@
       <c r="I8" s="4">
         <v>100</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>30101001</v>
       </c>
@@ -1032,10 +1057,10 @@
         <v>30001001</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>27</v>
@@ -1052,15 +1077,17 @@
       <c r="I9" s="4">
         <v>90</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>30101002</v>
       </c>
@@ -1088,15 +1115,17 @@
       <c r="I10" s="4">
         <v>90</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="4">
         <v>30101003</v>
       </c>
@@ -1104,13 +1133,13 @@
         <v>30001002</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F11" s="4">
         <v>30102003</v>
@@ -1124,14 +1153,17 @@
       <c r="I11" s="11">
         <v>1000</v>
       </c>
+      <c r="J11" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="4">
         <v>30101004</v>
       </c>
@@ -1139,13 +1171,13 @@
         <v>30001002</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F12" s="4">
         <v>30102004</v>
@@ -1159,11 +1191,14 @@
       <c r="I12" s="11">
         <v>1000</v>
       </c>
+      <c r="J12" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="K12" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DataGenerator/XLSXS/SkillData.xlsx
+++ b/DataGenerator/XLSXS/SkillData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1356494-3F17-4A83-A338-65D3E1BE84DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D242F733-8DA2-4C80-97F9-A69CBA55DC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2363" yWindow="3180" windowWidth="18667" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="350" yWindow="690" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>스킬 ID</t>
   </si>
@@ -322,12 +322,39 @@
     <t>icon_Scream</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>스킬 툴팁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillToolTip</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_SingleHeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_PoisonShot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_Purify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip_ThrowHeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -378,6 +405,13 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -433,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -463,6 +497,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -684,26 +719,26 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" customWidth="1"/>
-    <col min="11" max="11" width="20.59765625" customWidth="1"/>
-    <col min="12" max="12" width="17.86328125" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="20.6328125" customWidth="1"/>
+    <col min="12" max="12" width="17.81640625" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -740,7 +775,9 @@
       <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="M1" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="N1" s="3"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -748,7 +785,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -785,7 +822,9 @@
       <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -793,7 +832,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -830,7 +869,9 @@
       <c r="L3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -838,7 +879,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>20101001</v>
       </c>
@@ -875,7 +916,9 @@
       <c r="L4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -883,7 +926,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4">
         <v>20101002</v>
       </c>
@@ -920,12 +963,14 @@
       <c r="L5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4">
         <v>20101003</v>
       </c>
@@ -960,12 +1005,14 @@
       <c r="L6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>20101004</v>
       </c>
@@ -1002,12 +1049,14 @@
       <c r="L7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>90101001</v>
       </c>
@@ -1049,7 +1098,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>30101001</v>
       </c>
@@ -1087,7 +1136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>30101002</v>
       </c>
@@ -1125,7 +1174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4">
         <v>30101003</v>
       </c>
@@ -1163,7 +1212,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4">
         <v>30101004</v>
       </c>
